--- a/Docs/Pruebas_ordenamiento.xlsx
+++ b/Docs/Pruebas_ordenamiento.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\megarex mastercraft\Desktop\SamuelJosueFreireTarazona\Segundo Semestre\EDA\Retos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\megarex mastercraft\Desktop\SamuelJosueFreireTarazona\Segundo Semestre\EDA\Retos\Reto1\Reto1-G07\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Insetion</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Pruebas requerimiento 1</t>
-  </si>
-  <si>
-    <t>Tiempo</t>
   </si>
   <si>
     <t>1800-1900</t>
@@ -83,9 +80,6 @@
     <t>Painting &amp; Sculpture</t>
   </si>
   <si>
-    <t>Pruebas requerimiento 6</t>
-  </si>
-  <si>
     <t>Promedio</t>
   </si>
   <si>
@@ -97,12 +91,21 @@
   <si>
     <t>1950/12/01-1990/10/02</t>
   </si>
+  <si>
+    <t>Maquina 1</t>
+  </si>
+  <si>
+    <t>Maquina 2</t>
+  </si>
+  <si>
+    <t>Maquina  2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +124,20 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,10 +163,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,6 +201,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1800"/>
+              <a:t>Ordenamientos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1800" baseline="0"/>
+              <a:t> Maquina 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -843,11 +892,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1153808368"/>
-        <c:axId val="1153812720"/>
+        <c:axId val="-879717232"/>
+        <c:axId val="-879722128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1153808368"/>
+        <c:axId val="-879717232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -890,7 +939,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1153812720"/>
+        <c:crossAx val="-879722128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -898,7 +947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1153812720"/>
+        <c:axId val="-879722128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70000"/>
@@ -950,7 +999,824 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1153808368"/>
+        <c:crossAx val="-879717232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ordenamientos Maquina 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insetion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.41635300136489628"/>
+                  <c:y val="9.736510637131943E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-MX"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$15:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$15:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>86828.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>749125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5579500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3092019416741997E-2"/>
+                  <c:y val="-4.6801747128932036E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-MX"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$15:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$15:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4515.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16093.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57421.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>369203.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.3698019439789533E-2"/>
+                  <c:y val="2.3120030413258327E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-MX"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$15:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$15:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4671.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11296.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59078.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>529625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1452500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-MX"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$15:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$15:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>546.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-879712336"/>
+        <c:axId val="-879715056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-879712336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-879715056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-879715056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-879712336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1071,6 +1937,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1574,20 +2480,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:colOff>752474</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1601,6 +3010,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>757237</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1872,15 +3311,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R53"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1894,7 +3338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -1911,7 +3355,7 @@
         <v>140.63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -1928,7 +3372,7 @@
         <v>296.88</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -1945,7 +3389,7 @@
         <v>734.38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8000</v>
       </c>
@@ -1962,7 +3406,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15000</v>
       </c>
@@ -1979,7 +3423,7 @@
         <v>2937.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32000</v>
       </c>
@@ -1993,7 +3437,7 @@
         <v>6750</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>45000</v>
       </c>
@@ -2007,7 +3451,7 @@
         <v>9656.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>64000</v>
       </c>
@@ -2021,200 +3465,362 @@
         <v>13859.38</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R18" s="2"/>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1000</v>
+      </c>
+      <c r="B15">
+        <v>86828.13</v>
+      </c>
+      <c r="C15">
+        <v>4515.63</v>
+      </c>
+      <c r="D15">
+        <v>4671.88</v>
+      </c>
+      <c r="E15">
+        <v>546.88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2000</v>
+      </c>
+      <c r="B16">
+        <v>749125</v>
+      </c>
+      <c r="C16">
+        <v>16093.75</v>
+      </c>
+      <c r="D16">
+        <v>11296.88</v>
+      </c>
+      <c r="E16">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4000</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5579500</v>
+      </c>
+      <c r="C17">
+        <v>57421.88</v>
+      </c>
+      <c r="D17">
+        <v>59078.13</v>
+      </c>
+      <c r="E17">
+        <v>6875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>369203.13</v>
+      </c>
+      <c r="D18">
+        <v>529625</v>
+      </c>
+      <c r="E18">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15000</v>
+      </c>
+      <c r="D19">
+        <v>1452500</v>
+      </c>
+      <c r="E19">
+        <v>108828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>32000</v>
+      </c>
+      <c r="E20">
+        <v>272218.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>45000</v>
+      </c>
+      <c r="E21">
+        <v>1090859.3799999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
         <v>6</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D29" t="s">
         <v>7</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>31.25</v>
+      </c>
+      <c r="C30">
+        <v>15.63</v>
+      </c>
+      <c r="D30">
+        <v>15.63</v>
+      </c>
+      <c r="E30">
+        <f>(C30+D30+B30)/3</f>
+        <v>20.83666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>31.25</v>
+      </c>
+      <c r="C31">
+        <v>46.88</v>
+      </c>
+      <c r="D31">
+        <v>31.25</v>
+      </c>
+      <c r="E31">
+        <f>(C31+D31+B31)/3</f>
+        <v>36.46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>8</v>
-      </c>
-      <c r="E32" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33">
-        <v>31.25</v>
-      </c>
-      <c r="C33">
-        <v>15.63</v>
-      </c>
-      <c r="D33">
-        <v>15.63</v>
-      </c>
-      <c r="E33">
-        <f>(C33+D33+B33)/3</f>
-        <v>20.83666666666667</v>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>2843.75</v>
+      </c>
+      <c r="C34">
+        <v>2437.5</v>
+      </c>
+      <c r="D34">
+        <v>2687.5</v>
+      </c>
+      <c r="E34">
+        <f>(B34+C34+D34)/3</f>
+        <v>2656.25</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>9</v>
+      <c r="A35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35">
+        <v>5406.25</v>
+      </c>
+      <c r="C35">
+        <v>5078.13</v>
+      </c>
+      <c r="D35">
+        <v>6218.75</v>
+      </c>
+      <c r="E35">
+        <f>(B35+C35+D35)/3</f>
+        <v>5567.71</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" t="s">
-        <v>20</v>
+      <c r="A36" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37">
-        <v>2843.75</v>
-      </c>
-      <c r="C37">
-        <v>2437.5</v>
-      </c>
-      <c r="D37">
-        <v>2687.5</v>
-      </c>
-      <c r="E37">
-        <f>(B37+C37+D37)/3</f>
-        <v>2656.25</v>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>31.25</v>
+      </c>
+      <c r="C38">
+        <v>15.63</v>
+      </c>
+      <c r="D38">
+        <v>15.63</v>
+      </c>
+      <c r="E38">
+        <f>(B38+C38+D38)/3</f>
+        <v>20.83666666666667</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>10</v>
+      <c r="A39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39">
+        <v>46.88</v>
+      </c>
+      <c r="C39">
+        <v>31.25</v>
+      </c>
+      <c r="D39">
+        <v>31.25</v>
+      </c>
+      <c r="E39">
+        <f>(B39+C39+D39)/3</f>
+        <v>36.46</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="A40" t="s">
         <v>13</v>
-      </c>
-      <c r="E40" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>5</v>
       </c>
-      <c r="B41">
-        <v>31.25</v>
-      </c>
-      <c r="C41">
-        <v>15.63</v>
-      </c>
-      <c r="D41">
-        <v>15.63</v>
-      </c>
-      <c r="E41">
-        <f>(B41+C41+D41)/3</f>
-        <v>20.83666666666667</v>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>14</v>
+      <c r="A43" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
+      <c r="A44" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>5</v>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>8187.5</v>
+      </c>
+      <c r="C46">
+        <v>3328.13</v>
+      </c>
+      <c r="D46">
+        <v>390.63</v>
+      </c>
+      <c r="E46">
+        <f>(B46+C46+D46)/3</f>
+        <v>3968.7533333333336</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49">
-        <v>8187.5</v>
-      </c>
-      <c r="C49">
-        <v>3328.13</v>
-      </c>
-      <c r="D49">
-        <v>390.63</v>
-      </c>
-      <c r="E49">
-        <f>(B49+C49+D49)/3</f>
-        <v>3968.7533333333336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>5</v>
+      <c r="A47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47">
+        <v>17828.13</v>
+      </c>
+      <c r="C47">
+        <v>7468.75</v>
+      </c>
+      <c r="D47">
+        <v>859.375</v>
+      </c>
+      <c r="E47">
+        <f>(B47+C47+D47)/3</f>
+        <v>8718.751666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Pruebas_ordenamiento.xlsx
+++ b/Docs/Pruebas_ordenamiento.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Insetion</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Maquina  2</t>
+  </si>
+  <si>
+    <t>obras total</t>
   </si>
 </sst>
 </file>
@@ -231,7 +234,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -892,11 +894,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-879717232"/>
-        <c:axId val="-879722128"/>
+        <c:axId val="498374304"/>
+        <c:axId val="498374848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-879717232"/>
+        <c:axId val="498374304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,7 +941,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-879722128"/>
+        <c:crossAx val="498374848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -947,7 +949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-879722128"/>
+        <c:axId val="498374848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70000"/>
@@ -999,7 +1001,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-879717232"/>
+        <c:crossAx val="498374304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1013,7 +1015,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1709,11 +1710,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-879712336"/>
-        <c:axId val="-879715056"/>
+        <c:axId val="498368864"/>
+        <c:axId val="498367776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-879712336"/>
+        <c:axId val="498368864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1756,7 +1757,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-879715056"/>
+        <c:crossAx val="498367776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1764,7 +1765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-879715056"/>
+        <c:axId val="498367776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000000"/>
@@ -1816,7 +1817,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-879712336"/>
+        <c:crossAx val="498368864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3314,7 +3315,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3637,7 +3638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>19</v>
       </c>
@@ -3651,7 +3652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>2656.25</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>24</v>
       </c>
@@ -3687,12 +3688,12 @@
         <v>5567.71</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>10</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>22</v>
       </c>
@@ -3723,8 +3724,9 @@
         <f>(B38+C38+D38)/3</f>
         <v>20.83666666666667</v>
       </c>
+      <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>24</v>
       </c>
@@ -3742,38 +3744,67 @@
         <v>36.46</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B42">
+        <v>168604</v>
+      </c>
+      <c r="C42">
+        <v>146544</v>
+      </c>
+      <c r="D42">
+        <v>165446</v>
+      </c>
+      <c r="E42">
+        <f>(B42+C42+D42)/3</f>
+        <v>160198</v>
+      </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B43">
+        <v>171075</v>
+      </c>
+      <c r="C43">
+        <v>190846</v>
+      </c>
+      <c r="D43">
+        <v>165860</v>
+      </c>
+      <c r="E43">
+        <f>(B43+C43+D43)/3</f>
+        <v>175927</v>
+      </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>15</v>
       </c>
@@ -3787,7 +3818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>22</v>
       </c>
@@ -3805,7 +3836,7 @@
         <v>3968.7533333333336</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>24</v>
       </c>

--- a/Docs/Pruebas_ordenamiento.xlsx
+++ b/Docs/Pruebas_ordenamiento.xlsx
@@ -894,11 +894,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="498374304"/>
-        <c:axId val="498374848"/>
+        <c:axId val="1586672128"/>
+        <c:axId val="1586663968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="498374304"/>
+        <c:axId val="1586672128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,7 +941,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498374848"/>
+        <c:crossAx val="1586663968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -949,7 +949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="498374848"/>
+        <c:axId val="1586663968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70000"/>
@@ -1001,7 +1001,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498374304"/>
+        <c:crossAx val="1586672128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1710,11 +1710,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="498368864"/>
-        <c:axId val="498367776"/>
+        <c:axId val="1586677568"/>
+        <c:axId val="1586669408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="498368864"/>
+        <c:axId val="1586677568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,7 +1757,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498367776"/>
+        <c:crossAx val="1586669408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1765,7 +1765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="498367776"/>
+        <c:axId val="1586669408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000000"/>
@@ -1817,7 +1817,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498368864"/>
+        <c:crossAx val="1586677568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3315,7 +3315,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3768,17 +3768,17 @@
         <v>22</v>
       </c>
       <c r="B42">
-        <v>168604</v>
+        <v>1686043.75</v>
       </c>
       <c r="C42">
-        <v>146544</v>
+        <v>1465449.36</v>
       </c>
       <c r="D42">
-        <v>165446</v>
+        <v>1654467.39</v>
       </c>
       <c r="E42">
         <f>(B42+C42+D42)/3</f>
-        <v>160198</v>
+        <v>1601986.8333333333</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3786,17 +3786,17 @@
         <v>24</v>
       </c>
       <c r="B43">
-        <v>171075</v>
+        <v>1710758.22</v>
       </c>
       <c r="C43">
-        <v>190846</v>
+        <v>1908467.55</v>
       </c>
       <c r="D43">
-        <v>165860</v>
+        <v>1658604.86</v>
       </c>
       <c r="E43">
         <f>(B43+C43+D43)/3</f>
-        <v>175927</v>
+        <v>1759276.8766666667</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
